--- a/DOM_Banner/output/dept_banner/Aadhavi Sridharan_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Aadhavi Sridharan_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>UCLA Cardiac Arrhythmia Center, UCLA Health System, David Geffen School of Medicine at UCLA, Los Angeles, CA, USA; UCLA Cardiovascular Interventional Programs, Department of Medicine, David Geffen School of Medicine at UCLA &amp; UCLA Health System, Los Angeles, CA, USA; UCLA Cardiovascular Interventional Programs, Department of Medicine, David Geffen School of Medicine at UCLA &amp; UCLA Health System, Los Angeles, CA, USA; Section of Arrhythmia, Division of Cardiovascular Medicine, Department of Internal Medicine, Kobe University Graduate School of Medicine; UCLA Cardiovascular Interventional Programs, Department of Medicine, David Geffen School of Medicine at UCLA &amp; UCLA Health System, Los Angeles, CA, USA; UCLA Cardiovascular Interventional Programs, Department of Medicine, David Geffen School of Medicine at UCLA &amp; UCLA Health System, Los Angeles, CA, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311339324</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Revisiting the Anatomy of the Left Ventricular Summit</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Cardiac Electrophysiology Clinics</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ccep.2022.04.003</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36774131</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.ccep.2022.04.003</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Heart, Vascular and Thoracic Institute, Cardio-Oncology Program, Cleveland Clinic Abu Dhabi, Abu Dhabi, United Arab Emirates; Section of Electrophysiology, Division of Cardiology, Department of Medicine, Banner Health, University of Arizona – Tucson, Tucson, AZ, US; Department of Cardiovascular Medicine, University of Kansas Health System, Kansas City, KS, US; Division of Cardiovascular Medicine, New York Presbyterian Hospital, Weill Cornell Medicine, New York, NY, US; Section of Cardiovascular Medicine, Yale University School of Medicine, New Haven, CT, US; Thalheimer Center for Cardio-Oncology, Division of Cardiology, Department of Medicine, University of Pennsylvania, PA, US; UCLA Cardio-Oncology Program, Division of Cardiology, Department of Medicine, University of California Los Angeles, Los Angeles, CA, US</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4381572921</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Ventricular Arrhythmia in Cancer Patients: Mechanisms, Treatment Strategies and Future Avenues</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-05-29</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Arrhythmia &amp; electrophysiology review</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Radcliffe Publishing</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.15420/aer.2023.04</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37457438</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.15420/aer.2023.04</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -606,80 +621,85 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rebecca Ocher, Marwah Shahid, Aadhavi Sridharan, Rushi V. Parikh, Jason S. Bradfield, Marmar Vaseghi, Negeen Shahandeh</t>
+          <t>Aadhavi Sridharan, Amber Tang, Julie M. Sorg, Nir Hoftman, Jay M. Lee, Jane Yanagawa, Marmar Vaseghi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4323033592</t>
+          <t>UCLA Cardiac Arrhythmia Center, David Geffen School of Medicine at UCLA, University of California, Los Angeles. (A.S., A.T., J.M.S., M.V.).; UCLA Cardiac Arrhythmia Center, David Geffen School of Medicine at UCLA, University of California, Los Angeles. (A.S., A.T., J.M.S., M.V.).; UCLA Cardiac Arrhythmia Center, David Geffen School of Medicine at UCLA, University of California, Los Angeles. (A.S., A.T., J.M.S., M.V.).; Department of Anesthesiology, University of California, Los Angeles. (N.N.H.).; Division of Thoracic Surgery, University of California, Los Angeles. (J.M.L., J.Y.).; Division of Thoracic Surgery, University of California, Los Angeles. (J.M.L., J.Y.).; UCLA Cardiac Arrhythmia Center, David Geffen School of Medicine at UCLA, University of California, Los Angeles. (A.S., A.T., J.M.S., M.V.).</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>APPLE WATCH DETECTED VENTRICULAR TACHYCARDIA IN A PREGNANT PATIENT</t>
+          <t>https://openalex.org/W4324128995</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>Effect of Bilateral Cardiac Sympathetic Denervation on Burden of Premature Ventricular Contractions</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Journal of the American College of Cardiology</t>
+          <t>2023-04-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Circulation: Arrhythmia and Electrophysiology</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)04318-8</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1161/circep.122.011546</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s0735-1097(23)04318-8</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36916281</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1161/circep.122.011546</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,42 +708,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aadhavi Sridharan, Amber Tang, Julie M. Sorg, Nir Hoftman, Jay M. Lee, Jane Yanagawa, Marmar Vaseghi</t>
+          <t>Rebecca Ocher, Marwah Shahid, Aadhavi Sridharan, Rushi V. Parikh, Jason S. Bradfield, Marmar Vaseghi, Negeen Shahandeh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4324128995</t>
+          <t>University of California, Los Angeles, Los Angeles, CA, USA; University of California, Los Angeles, Los Angeles, CA, USA; University of California, Los Angeles, Los Angeles, CA, USA; University of California, Los Angeles, Los Angeles, CA, USA; University of California, Los Angeles, Los Angeles, CA, USA; University of California, Los Angeles, Los Angeles, CA, USA; University of California, Los Angeles, Los Angeles, CA, USA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Effect of Bilateral Cardiac Sympathetic Denervation on Burden of Premature Ventricular Contractions</t>
+          <t>https://openalex.org/W4323033592</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-04-01</t>
+          <t>APPLE WATCH DETECTED VENTRICULAR TACHYCARDIA IN A PREGNANT PATIENT</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Circulation: Arrhythmia and Electrophysiology</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Journal of the American College of Cardiology</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/circep.122.011546</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/s0735-1097(23)04318-8</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36916281</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1161/circep.122.011546</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0735-1097(23)04318-8</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine; University of Arizona College of Medicine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4317718204</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Coronary arterial injury during right ventricular outflow tract ablation: Know your neighbors</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-01-22</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Authorea (Authorea)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>https://doi.org/10.22541/au.167436723.34548253/v1</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.22541/au.167436723.34548253/v1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,39 +887,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Banner University Medical Center‐Tucson and University of Arizona College of Medicine Tucson Tucson Arizona USA; Banner University Medical Center‐Tucson and University of Arizona College of Medicine Tucson Tucson Arizona USA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4318451313</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Coronary arterial injury during right ventricular outflow tract ablation: Know your neighbors</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Journal of Cardiovascular Electrophysiology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Wiley-Blackwell</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/jce.15835</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36709466</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1111/jce.15835</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>UCLA Cardiac Arrhythmia Center, UCLA Health System, David Geffen School of Medicine at UCLA, Los Angeles, CA, United States; UCLA Cardiac Arrhythmia Center, UCLA Health System, David Geffen School of Medicine at UCLA, Los Angeles, CA, United States; UCLA Cardiac Arrhythmia Center, UCLA Health System, David Geffen School of Medicine at UCLA, Los Angeles, CA, United States</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4320006573</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>The autonomic nervous system and cardiac arrhythmias</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Elsevier eBooks</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/b978-0-323-85492-4.00128-9</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/b978-0-323-85492-4.00128-9</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>book-chapter</t>
         </is>
